--- a/src/test/resources/member.xlsx
+++ b/src/test/resources/member.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27701"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoohuang/github/excel2javabeans/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/excel2javabeans/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>会员姓名
 （不超过12字）</t>
@@ -444,9 +444,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;男&quot;;&quot;女&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -562,7 +563,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,16 +601,19 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -909,25 +913,25 @@
     <col min="7" max="7" width="25.5" style="11" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" style="11" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="10" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" style="10" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1077,116 +1081,116 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>31853</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>100</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>90</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>42583</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>3</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17">
+        <v>42370</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>60</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>40</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>42125</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/resources/member.xlsx
+++ b/src/test/resources/member.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/excel2javabeans/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18E2D4A9-79B8-3A49-9F9A-53F6F8BF01C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,13 +43,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <rPh sb="0" eb="1">
-      <t>xing'bie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,17 +433,21 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;男&quot;;&quot;女&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,10 +608,10 @@
     <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,6 +625,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -894,15 +895,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="10" customWidth="1"/>
@@ -918,74 +919,74 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+    <row r="1" spans="1:11">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="34" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7">
         <v>31853</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
@@ -998,25 +999,25 @@
         <v>42583</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
@@ -1024,28 +1025,28 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
@@ -1058,18 +1059,18 @@
         <v>42125</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
@@ -1080,24 +1081,24 @@
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="15">
         <v>31853</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
@@ -1110,54 +1111,54 @@
         <v>42583</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="13">
         <v>3</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>42370</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
@@ -1170,18 +1171,18 @@
         <v>42125</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="13"/>
